--- a/data/dc_sexo.xlsx
+++ b/data/dc_sexo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pepemm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8BE38-9A00-B34F-94CA-CB65D16807D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79E109-6D94-FE45-B714-AE500A838AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{45D07C04-B09C-894B-BF85-048D1C2EEB4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{45D07C04-B09C-894B-BF85-048D1C2EEB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Nombre superhéroe</t>
   </si>
   <si>
-    <t>Nombre humano</t>
-  </si>
-  <si>
     <t>MUJER</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Harley Quinn</t>
+  </si>
+  <si>
+    <t>Sexo</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,23 +442,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
